--- a/biology/Zoologie/Agreste_de_Stauder/Agreste_de_Stauder.xlsx
+++ b/biology/Zoologie/Agreste_de_Stauder/Agreste_de_Stauder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hipparchia pellucida
 L'Agreste de Stauder  (Hipparchia pellucida) est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Hipparchia.
@@ -512,15 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été nommé Hipparchia  pellucida par Stauder en 1924.
-Synonymes :Hipparchia semele pellucida [1].
+Synonymes :Hipparchia semele pellucida .
 Pour certains c'est Hipparchia semelle pellucida, une sous-espèce d' Hipparchia semele.
-Sous-espèces
-Hipparchia pellucida turkmenica (Heydemann, 1942)[1].
-Noms vernaculaires
-L'Agreste de Stauder a été nommé en l'honneur de Stauder. Il se nomme Cyprus Grayling en anglais et Ιππάρχια της Ικαρίας en grec[2],[3].
 </t>
         </is>
       </c>
@@ -546,13 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Agreste  de Stauder est de couleur marron avec des taches jaune orangé disposées en bande submarginale plus marquée chez la femelle, plus discrète chez le mâle, avec en bordure une frange entrecoupée et deux ocelles noirs pupillés de blanc aux antérieures et un très petit en position anale aux postérieures. 
-Le revers des antérieures est jaune orangé avec une bande jaune plus clair qui porte deux ocelles noirs et une bordure marbrée de marron et de blanc alors que les postérieures sont entièrement marbrées de marron et de blanc.
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hipparchia pellucida turkmenica (Heydemann, 1942).
 </t>
         </is>
       </c>
@@ -578,15 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Agreste  de Stauder vole en une génération de mai à juillet[4].
-Plantes hôtes
-Ses plantes hôtes sont diverses des Gramineae.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste de Stauder a été nommé en l'honneur de Stauder. Il se nomme Cyprus Grayling en anglais et Ιππάρχια της Ικαρίας en grec,.
 </t>
         </is>
       </c>
@@ -612,15 +630,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste  de Stauder est de couleur marron avec des taches jaune orangé disposées en bande submarginale plus marquée chez la femelle, plus discrète chez le mâle, avec en bordure une frange entrecoupée et deux ocelles noirs pupillés de blanc aux antérieures et un très petit en position anale aux postérieures. 
+Le revers des antérieures est jaune orangé avec une bande jaune plus clair qui porte deux ocelles noirs et une bordure marbrée de marron et de blanc alors que les postérieures sont entièrement marbrées de marron et de blanc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agreste_de_Stauder</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_de_Stauder</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste  de Stauder vole en une génération de mai à juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agreste_de_Stauder</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_de_Stauder</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont diverses des Gramineae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agreste_de_Stauder</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_de_Stauder</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'Agreste de Stauder est présent dans les îles Égéennes grecques, à Chypre et en Turquie, Syrie, Irak, Iran et jusqu'au Kurdistan[4],[1].
-Biotope
-Il réside sur des escarpements rocheux.
-Protection</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste de Stauder est présent dans les îles Égéennes grecques, à Chypre et en Turquie, Syrie, Irak, Iran et jusqu'au Kurdistan,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agreste_de_Stauder</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_de_Stauder</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside sur des escarpements rocheux.
+</t>
         </is>
       </c>
     </row>
